--- a/biology/Zoologie/Hamipterus/Hamipterus.xlsx
+++ b/biology/Zoologie/Hamipterus/Hamipterus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hamipterus tianshanensis
 Hamipterus est un  genre éteint de ptérosaures ptéranodontoïdes du Crétacé inférieur, découvert dans l'actuelle province du Xinjiang dans le Nord-Ouest de la Chine.
@@ -512,9 +524,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On ne connait actuellement qu’une seule espèce au sein de ce genre : Hamipterus tianshanensis[2], qui avait la taille du goéland et pourrait avoir été associé aux zones humides, au moins pour sa reproduction.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On ne connait actuellement qu’une seule espèce au sein de ce genre : Hamipterus tianshanensis, qui avait la taille du goéland et pourrait avoir été associé aux zones humides, au moins pour sa reproduction.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2006, un site de nidification a été découvert dans le Crétacé inférieur de Chine, dans la Région autonome ouïghoure du Xinjiang. L’étude de ce Konservat-Lagerstätte  a livré des centaines d’œufs fossilisés de Hamipterus tianshanensis dont 16 avec des restes d’embryons. Xiaolin Wang et ses collègues en 2014 en ont conclu à une convergence écologique entre les ptérosaures et les oiseaux[1]. 
-En 2017, Xiaolin Wang et ses collègues indiquent que les nouveau-nés de ptérosaures semblent en effet avoir été moins précoces qu'on ne le pensait (ossification inachevée à l’éclosion impliquant des soins parentaux), et la superposition de couvées évoque une fidélité au site de nidification (un peu comme dans les colonies d’oiseaux marins)[3].
-Ces conclusions sont complètement remises en cause en 2019 dans une étude conduite par David Unwin et Charles Deeming[4],[5]. Cette analyse, basée sur l'étude de ces mêmes œufs et embryons chinois, et leur comparaison avec ceux des oiseaux et des crocodiles, conclut qu'ils étaient encore à un stade précoce de développement et loin de leur éclosion. Les deux paléontologues en déduisent que ces ptérosaures nouveau-nés étaient capables de voler dès leur naissance et livrés à eux-mêmes. Une faible proportion de cette progéniture échappait aux prédateurs (comme les petits théropodes du genre Sinosauropteryx)[5].
-Cette capacité à voler dès la naissance et à poursuivre leur croissance expliquerait aussi que les ptérosaures pouvaient atteindre des envergures considérables à l'état adulte[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2006, un site de nidification a été découvert dans le Crétacé inférieur de Chine, dans la Région autonome ouïghoure du Xinjiang. L’étude de ce Konservat-Lagerstätte  a livré des centaines d’œufs fossilisés de Hamipterus tianshanensis dont 16 avec des restes d’embryons. Xiaolin Wang et ses collègues en 2014 en ont conclu à une convergence écologique entre les ptérosaures et les oiseaux. 
+En 2017, Xiaolin Wang et ses collègues indiquent que les nouveau-nés de ptérosaures semblent en effet avoir été moins précoces qu'on ne le pensait (ossification inachevée à l’éclosion impliquant des soins parentaux), et la superposition de couvées évoque une fidélité au site de nidification (un peu comme dans les colonies d’oiseaux marins).
+Ces conclusions sont complètement remises en cause en 2019 dans une étude conduite par David Unwin et Charles Deeming,. Cette analyse, basée sur l'étude de ces mêmes œufs et embryons chinois, et leur comparaison avec ceux des oiseaux et des crocodiles, conclut qu'ils étaient encore à un stade précoce de développement et loin de leur éclosion. Les deux paléontologues en déduisent que ces ptérosaures nouveau-nés étaient capables de voler dès leur naissance et livrés à eux-mêmes. Une faible proportion de cette progéniture échappait aux prédateurs (comme les petits théropodes du genre Sinosauropteryx).
+Cette capacité à voler dès la naissance et à poursuivre leur croissance expliquerait aussi que les ptérosaures pouvaient atteindre des envergures considérables à l'état adulte.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                  (28 décembre 2017)[6] et Paleobiology Database                   (28 décembre 2017)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                  (28 décembre 2017) et Paleobiology Database                   (28 décembre 2017) :
 Hamipterus tianshanensis Wang et al., 2014 †</t>
         </is>
       </c>
